--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763578.7735701588</v>
+        <v>761199.849365156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801353</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>317.1191748890786</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400495</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3249935453962</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.521520969392</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>71.68269007697828</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +950,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>170.1499121756178</v>
+        <v>233.3257147283073</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>284.4466568143143</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>32.79376842490331</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>111.2109412408483</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.6775359601039</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>109.9946371007651</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>225.9113921283888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>43.61939039064255</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>70.51463953018434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>43.61939039064417</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>149.6950201893602</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.43396264657</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>17.5092359659069</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>206.1038651114209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>146.5235739004486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8230507160376</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>50.17139158339456</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>82.25298866282583</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>125.2700607443043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>11.76284745948067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>140.1594216201948</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038043</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.669719097631</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.404020490881</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1095.404020490881</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>684.4181157012733</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102165</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>763.7557992120743</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>541.9891837816003</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438281</v>
+        <v>541.9891837816003</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438281</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
         <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>198.893319710031</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>191.9478189608275</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>180.9157728462281</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452389</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>609.2899331452389</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W7" t="n">
-        <v>437.4213349880492</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>437.4213349880492</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445192</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
         <v>1274.580917301916</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062802</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W10" t="n">
-        <v>808.55272173652</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X10" t="n">
-        <v>808.55272173652</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.55272173652</v>
+        <v>246.5270825411072</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.9048801441726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C13" t="n">
-        <v>464.9048801441726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1190.65500321726</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U13" t="n">
-        <v>1190.65500321726</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V13" t="n">
-        <v>935.9705150113729</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W13" t="n">
-        <v>646.5533449744123</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X13" t="n">
-        <v>646.5533449744123</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.5533449744123</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.480314654151</v>
+        <v>427.2938233785118</v>
       </c>
       <c r="W16" t="n">
-        <v>923.2869892719397</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="X16" t="n">
-        <v>923.2869892719397</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.4944101284095</v>
+        <v>93.81666304797282</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.823249958218</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562355</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S19" t="n">
-        <v>1302.282928946007</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T19" t="n">
-        <v>1082.681463968948</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U19" t="n">
-        <v>1082.681463968948</v>
+        <v>681.9783115843993</v>
       </c>
       <c r="V19" t="n">
-        <v>1082.681463968948</v>
+        <v>427.2938233785125</v>
       </c>
       <c r="W19" t="n">
-        <v>793.2642939319878</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="X19" t="n">
-        <v>793.2642939319878</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="Y19" t="n">
-        <v>572.4717147884577</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,25 +5765,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263208</v>
+        <v>395.1403935606714</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984139</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860782</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>330.0656153226283</v>
+        <v>402.4420650943384</v>
       </c>
       <c r="L22" t="n">
-        <v>720.4642094985684</v>
+        <v>792.8406592702786</v>
       </c>
       <c r="M22" t="n">
-        <v>1142.473912229603</v>
+        <v>1214.850362001313</v>
       </c>
       <c r="N22" t="n">
-        <v>1559.883783889611</v>
+        <v>1632.260233661322</v>
       </c>
       <c r="O22" t="n">
-        <v>1929.413064598596</v>
+        <v>1916.376186100401</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673972</v>
+        <v>2209.05164167396</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400871</v>
+        <v>2328.249876400859</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653274</v>
+        <v>2261.204172653262</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.204172653274</v>
+        <v>2078.349338308166</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.602707676215</v>
+        <v>1858.747873331107</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740956</v>
+        <v>1569.672646675306</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535069</v>
+        <v>1314.988158469419</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498108</v>
+        <v>1025.570988432459</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.825401600091</v>
+        <v>797.5814375344413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456561</v>
+        <v>576.7888583909112</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.999011369783</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6236,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.058935487114</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.983708831312</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.1865537761979</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>781.250370848291</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>631.1337314359553</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>483.2206378535622</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>336.3306903556518</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1492342949665</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>813.2130513670596</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>663.0964119547239</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>515.1833183723307</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>368.2933708744204</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949665</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1920.063992790047</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285115</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7257,13 +7257,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912053</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4387812932949</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>302.4387812932949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1132.402531511373</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>631.5645865368208</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9571,10 +9571,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>76.76557720436136</v>
       </c>
       <c r="P22" t="n">
-        <v>121.8379991744623</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.937937058108417</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5900162513297</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>60.61160620820377</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.9652629614523</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>110.5116464714603</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>174.9652629614506</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17.55180090926765</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>268.6752384233372</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>19.60579027761628</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229294</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>70.88187642683968</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>6.701087576231288</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>115.3527467088743</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>66.36248435538653</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>15.0246521019196</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9468079295565</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.274541026374379</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959462.0866949384</v>
+        <v>959462.0866949382</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959462.0866949384</v>
+        <v>959462.0866949381</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998749.2321801388</v>
+        <v>998749.2321801382</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
         <v>411198.0371549734</v>
       </c>
       <c r="F2" t="n">
-        <v>411198.0371549733</v>
+        <v>411198.0371549734</v>
       </c>
       <c r="G2" t="n">
         <v>411198.0371549733</v>
@@ -26332,25 +26332,25 @@
         <v>422271.1362908974</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
@@ -26430,25 +26430,25 @@
         <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086836071</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073107</v>
+        <v>14243.58217073088</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-1099228.50121429</v>
       </c>
       <c r="C6" t="n">
-        <v>229516.2445133028</v>
+        <v>229516.244513303</v>
       </c>
       <c r="D6" t="n">
-        <v>229516.2445133028</v>
+        <v>229516.244513303</v>
       </c>
       <c r="E6" t="n">
-        <v>-16098.34268497246</v>
+        <v>-16192.8612184189</v>
       </c>
       <c r="F6" t="n">
-        <v>309314.1191223827</v>
+        <v>309219.6005889362</v>
       </c>
       <c r="G6" t="n">
-        <v>309314.1191223826</v>
+        <v>309219.600588936</v>
       </c>
       <c r="H6" t="n">
-        <v>306905.0242962592</v>
+        <v>306863.2348063173</v>
       </c>
       <c r="I6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160185</v>
       </c>
       <c r="J6" t="n">
-        <v>89051.64864417662</v>
+        <v>89016.91071874097</v>
       </c>
       <c r="K6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="L6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160185</v>
       </c>
       <c r="M6" t="n">
-        <v>221527.8231059422</v>
+        <v>221493.0851805066</v>
       </c>
       <c r="N6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160185</v>
       </c>
       <c r="O6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160186</v>
       </c>
       <c r="P6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160184</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426694</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>93.80255076437487</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139243</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1980047911948</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161551</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>222.9250743103422</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>116.3730861609732</v>
+        <v>53.1972836082837</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>80.82623495669327</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.4530526737245</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>175.3120570957427</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.579747595651265e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31838,16 +31838,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>697.06562727909</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,25 +32075,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>270.9716933356906</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447137</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>671.9287955253226</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451602</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>687.0167715190038</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35486,16 +35486,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>554.9315933570717</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>132.4173135558164</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>286.9858105445244</v>
       </c>
       <c r="P22" t="n">
-        <v>282.4632091670462</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648395</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>529.7947616033043</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591387</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>342.516458763847</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>544.4205270745593</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
